--- a/04_memo/map18.xlsx
+++ b/04_memo/map18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A7A81F-BEED-462D-97ED-24B819A7587F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F864A7B-5084-4368-8D8E-E5436A737A57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="U6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>11</v>
@@ -1539,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
         <v>11</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>11</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4">
         <v>11</v>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>1</v>

--- a/04_memo/map18.xlsx
+++ b/04_memo/map18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F864A7B-5084-4368-8D8E-E5436A737A57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E090CB0D-F0CE-4E2D-A1B0-1124B061EFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,10 +1153,13 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="4.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1287,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11</v>
       </c>
       <c r="H5" s="4">
         <v>11</v>
@@ -1322,14 +1325,14 @@
       <c r="P5" s="4">
         <v>11</v>
       </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
+      <c r="Q5" s="1">
+        <v>11</v>
+      </c>
+      <c r="R5" s="1">
+        <v>11</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -2151,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4">
         <v>11</v>
@@ -2187,13 +2190,13 @@
         <v>11</v>
       </c>
       <c r="Q17" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
